--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2944.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2944.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.079376793024911</v>
+        <v>1.296496629714966</v>
       </c>
       <c r="B1">
-        <v>2.591150291554765</v>
+        <v>1.116909027099609</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.172342538833618</v>
       </c>
       <c r="D1">
-        <v>2.298529619238884</v>
+        <v>3.100940227508545</v>
       </c>
       <c r="E1">
-        <v>1.315567346737598</v>
+        <v>0.9243699908256531</v>
       </c>
     </row>
   </sheetData>
